--- a/dynamic-excel-project/dynamic-excel/src/main/resources/excel/list/template0.xlsx
+++ b/dynamic-excel-project/dynamic-excel/src/main/resources/excel/list/template0.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Projects\Java\Application\dynamic-excel\dynamic-excel-project\dynamic-excel\src\main\resources\excel\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A42334D9-17CD-4DD8-856B-3EF4A44A8CAE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C889DF83-19C6-4996-A044-4CFE66FCC658}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{268615D9-CE3C-46BE-9E21-05C42FC0F71A}"/>
+    <workbookView xWindow="33735" yWindow="1845" windowWidth="21600" windowHeight="11385" xr2:uid="{268615D9-CE3C-46BE-9E21-05C42FC0F71A}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ID">テンプレート!$A$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$P$6</definedName>
-    <definedName name="一般名称">テンプレート!$F$5</definedName>
-    <definedName name="科名">テンプレート!$L$5</definedName>
-    <definedName name="漢字名称">テンプレート!$B$5</definedName>
-    <definedName name="属名">テンプレート!$N$5</definedName>
-    <definedName name="発行者">テンプレート!$N$2</definedName>
-    <definedName name="発行日">テンプレート!$N$1</definedName>
-    <definedName name="目名">テンプレート!$J$5</definedName>
+    <definedName name="ID">テンプレート!$B$5</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">テンプレート!$A$1:$Q$6</definedName>
+    <definedName name="一般名称">テンプレート!$G$5</definedName>
+    <definedName name="科名">テンプレート!$M$5</definedName>
+    <definedName name="漢字名称">テンプレート!$C$5</definedName>
+    <definedName name="属名">テンプレート!$O$5</definedName>
+    <definedName name="発行者">テンプレート!$O$2</definedName>
+    <definedName name="発行日">テンプレート!$O$1</definedName>
+    <definedName name="目名">テンプレート!$K$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -341,52 +341,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -703,61 +703,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B832A4C-14FE-4C97-8BB2-0DB7A68C2D7C}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="B1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:K2"/>
+      <selection activeCell="B1" sqref="B1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="14" width="9" style="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="1"/>
+    <col min="1" max="15" width="9" style="1"/>
+    <col min="16" max="16" width="9" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="6"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="15"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="7" t="s">
+    <row r="2" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="6"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="15"/>
     </row>
-    <row r="3" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
+    <row r="3" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -765,73 +764,74 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="18"/>
+      <c r="M4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="19"/>
+      <c r="O4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="8"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B5" s="3"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>